--- a/+aae550/+hw1/partI_6.xlsx
+++ b/+aae550/+hw1/partI_6.xlsx
@@ -9,40 +9,44 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Answer Report 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Answer Report 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sensitivity Report 1" sheetId="5" r:id="rId3"/>
+    <sheet name="Limits Report 1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$D$5:$D$6</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Sheet1!$D$5:$D$6</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Sheet1!$D$4</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>x2</t>
   </si>
@@ -92,9 +96,6 @@
     <t>Worksheet: [partI_6.xlsx]Sheet1</t>
   </si>
   <si>
-    <t>Report Created: 10/13/2017 7:06:46 PM</t>
-  </si>
-  <si>
     <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
   </si>
   <si>
@@ -104,9 +105,6 @@
     <t>Engine: GRG Nonlinear</t>
   </si>
   <si>
-    <t>Solution Time: 0.015 Seconds.</t>
-  </si>
-  <si>
     <t>Iterations: 3 Subproblems: 0</t>
   </si>
   <si>
@@ -159,6 +157,54 @@
   </si>
   <si>
     <t>$D$6</t>
+  </si>
+  <si>
+    <t>Report Created: 10/16/2017 6:42:56 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.047 Seconds.</t>
+  </si>
+  <si>
+    <t>Report Created: 10/16/2017 6:43:55 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.031 Seconds.</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Limits Report</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
   </si>
 </sst>
 </file>
@@ -198,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -237,22 +283,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -560,155 +632,155 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5">
-        <v>-4.4500000000000455</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>-164.47368421052633</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.18421052635277699</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.18421052631626628</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.23684210525614263</v>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.23684210526325328</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -718,16 +790,465 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-164.47368421052633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.18421052631626628</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.23684210526325328</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.18421052631626628</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.23684210526325328</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-164.47368421052633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.18421052631626628</v>
+      </c>
+      <c r="F13" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.23684210526325328</v>
+      </c>
+      <c r="F14" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.18421052635277699</v>
+        <v>0.18421052631626628</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -754,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.23684210525614263</v>
+        <v>0.23684210526325328</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -798,7 +1319,7 @@
       </c>
       <c r="F13">
         <f>(D8+D9)*D5-D9*D6</f>
-        <v>500.00000015496528</v>
+        <v>500.00000000181183</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
@@ -810,7 +1331,7 @@
       </c>
       <c r="F14">
         <f>-D9*D5+(D9+D10+D11)*D6</f>
-        <v>999.99999992793619</v>
+        <v>1000.0000000000001</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
